--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,13 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sfrp2</t>
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.47949254129273</v>
+        <v>6.575715666666667</v>
       </c>
       <c r="H2">
-        <v>5.47949254129273</v>
+        <v>19.727147</v>
       </c>
       <c r="I2">
-        <v>0.1867738151833289</v>
+        <v>0.2077500326255795</v>
       </c>
       <c r="J2">
-        <v>0.1867738151833289</v>
+        <v>0.2077500326255795</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.73534820884493</v>
+        <v>9.920975666666667</v>
       </c>
       <c r="N2">
-        <v>5.73534820884493</v>
+        <v>29.762927</v>
       </c>
       <c r="O2">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456686</v>
       </c>
       <c r="P2">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456685</v>
       </c>
       <c r="Q2">
-        <v>31.42679773208241</v>
+        <v>65.23751511991878</v>
       </c>
       <c r="R2">
-        <v>31.42679773208241</v>
+        <v>587.1376360792691</v>
       </c>
       <c r="S2">
-        <v>0.07534930154797226</v>
+        <v>0.1117510274975207</v>
       </c>
       <c r="T2">
-        <v>0.07534930154797226</v>
+        <v>0.1117510274975207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.47949254129273</v>
+        <v>6.575715666666667</v>
       </c>
       <c r="H3">
-        <v>5.47949254129273</v>
+        <v>19.727147</v>
       </c>
       <c r="I3">
-        <v>0.1867738151833289</v>
+        <v>0.2077500326255795</v>
       </c>
       <c r="J3">
-        <v>0.1867738151833289</v>
+        <v>0.2077500326255795</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.11894837385395</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N3">
-        <v>6.11894837385395</v>
+        <v>18.461809</v>
       </c>
       <c r="O3">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="P3">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="Q3">
-        <v>33.528731975088</v>
+        <v>40.46653555876923</v>
       </c>
       <c r="R3">
-        <v>33.528731975088</v>
+        <v>364.1988200289231</v>
       </c>
       <c r="S3">
-        <v>0.08038892659855618</v>
+        <v>0.06931865690538348</v>
       </c>
       <c r="T3">
-        <v>0.08038892659855618</v>
+        <v>0.06931865690538348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.47949254129273</v>
+        <v>6.575715666666667</v>
       </c>
       <c r="H4">
-        <v>5.47949254129273</v>
+        <v>19.727147</v>
       </c>
       <c r="I4">
-        <v>0.1867738151833289</v>
+        <v>0.2077500326255795</v>
       </c>
       <c r="J4">
-        <v>0.1867738151833289</v>
+        <v>0.2077500326255795</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.36232977433292</v>
+        <v>2.368614333333333</v>
       </c>
       <c r="N4">
-        <v>2.36232977433292</v>
+        <v>7.105843</v>
       </c>
       <c r="O4">
-        <v>0.1661666920833485</v>
+        <v>0.1284252420347888</v>
       </c>
       <c r="P4">
-        <v>0.1661666920833485</v>
+        <v>0.1284252420347888</v>
       </c>
       <c r="Q4">
-        <v>12.94436837853097</v>
+        <v>15.57533437999122</v>
       </c>
       <c r="R4">
-        <v>12.94436837853097</v>
+        <v>140.178009419921</v>
       </c>
       <c r="S4">
-        <v>0.03103558703680046</v>
+        <v>0.0266803482226753</v>
       </c>
       <c r="T4">
-        <v>0.03103558703680046</v>
+        <v>0.0266803482226753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.8580917229378</v>
+        <v>24.874192</v>
       </c>
       <c r="H5">
-        <v>23.8580917229378</v>
+        <v>74.622576</v>
       </c>
       <c r="I5">
-        <v>0.8132261848166712</v>
+        <v>0.7858633890954824</v>
       </c>
       <c r="J5">
-        <v>0.8132261848166712</v>
+        <v>0.7858633890954825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.73534820884493</v>
+        <v>9.920975666666667</v>
       </c>
       <c r="N5">
-        <v>5.73534820884493</v>
+        <v>29.762927</v>
       </c>
       <c r="O5">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456686</v>
       </c>
       <c r="P5">
-        <v>0.4034254023992214</v>
+        <v>0.5379109985456685</v>
       </c>
       <c r="Q5">
-        <v>136.8344636296094</v>
+        <v>246.7762535599946</v>
       </c>
       <c r="R5">
-        <v>136.8344636296094</v>
+        <v>2220.986282039952</v>
       </c>
       <c r="S5">
-        <v>0.3280761008512492</v>
+        <v>0.4227245603488342</v>
       </c>
       <c r="T5">
-        <v>0.3280761008512492</v>
+        <v>0.4227245603488342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.8580917229378</v>
+        <v>24.874192</v>
       </c>
       <c r="H6">
-        <v>23.8580917229378</v>
+        <v>74.622576</v>
       </c>
       <c r="I6">
-        <v>0.8132261848166712</v>
+        <v>0.7858633890954824</v>
       </c>
       <c r="J6">
-        <v>0.8132261848166712</v>
+        <v>0.7858633890954825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.11894837385395</v>
+        <v>6.153936333333334</v>
       </c>
       <c r="N6">
-        <v>6.11894837385395</v>
+        <v>18.461809</v>
       </c>
       <c r="O6">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="P6">
-        <v>0.4304079055174301</v>
+        <v>0.3336637594195427</v>
       </c>
       <c r="Q6">
-        <v>145.9864315513286</v>
+        <v>153.0741939111093</v>
       </c>
       <c r="R6">
-        <v>145.9864315513286</v>
+        <v>1377.667745199984</v>
       </c>
       <c r="S6">
-        <v>0.350018978918874</v>
+        <v>0.2622141327957815</v>
       </c>
       <c r="T6">
-        <v>0.350018978918874</v>
+        <v>0.2622141327957815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>24.874192</v>
+      </c>
+      <c r="H7">
+        <v>74.622576</v>
+      </c>
+      <c r="I7">
+        <v>0.7858633890954824</v>
+      </c>
+      <c r="J7">
+        <v>0.7858633890954825</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.368614333333333</v>
+      </c>
+      <c r="N7">
+        <v>7.105843</v>
+      </c>
+      <c r="O7">
+        <v>0.1284252420347888</v>
+      </c>
+      <c r="P7">
+        <v>0.1284252420347888</v>
+      </c>
+      <c r="Q7">
+        <v>58.91736770128533</v>
+      </c>
+      <c r="R7">
+        <v>530.256309311568</v>
+      </c>
+      <c r="S7">
+        <v>0.1009246959508667</v>
+      </c>
+      <c r="T7">
+        <v>0.1009246959508667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>23.8580917229378</v>
-      </c>
-      <c r="H7">
-        <v>23.8580917229378</v>
-      </c>
-      <c r="I7">
-        <v>0.8132261848166712</v>
-      </c>
-      <c r="J7">
-        <v>0.8132261848166712</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.36232977433292</v>
-      </c>
-      <c r="N7">
-        <v>2.36232977433292</v>
-      </c>
-      <c r="O7">
-        <v>0.1661666920833485</v>
-      </c>
-      <c r="P7">
-        <v>0.1661666920833485</v>
-      </c>
-      <c r="Q7">
-        <v>56.36068043586176</v>
-      </c>
-      <c r="R7">
-        <v>56.36068043586176</v>
-      </c>
-      <c r="S7">
-        <v>0.1351311050465481</v>
-      </c>
-      <c r="T7">
-        <v>0.1351311050465481</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.2021483333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.606445</v>
+      </c>
+      <c r="I8">
+        <v>0.006386578278938132</v>
+      </c>
+      <c r="J8">
+        <v>0.006386578278938132</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.920975666666667</v>
+      </c>
+      <c r="N8">
+        <v>29.762927</v>
+      </c>
+      <c r="O8">
+        <v>0.5379109985456686</v>
+      </c>
+      <c r="P8">
+        <v>0.5379109985456685</v>
+      </c>
+      <c r="Q8">
+        <v>2.005508696057222</v>
+      </c>
+      <c r="R8">
+        <v>18.049578264515</v>
+      </c>
+      <c r="S8">
+        <v>0.003435410699313688</v>
+      </c>
+      <c r="T8">
+        <v>0.003435410699313687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.2021483333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.606445</v>
+      </c>
+      <c r="I9">
+        <v>0.006386578278938132</v>
+      </c>
+      <c r="J9">
+        <v>0.006386578278938132</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.153936333333334</v>
+      </c>
+      <c r="N9">
+        <v>18.461809</v>
+      </c>
+      <c r="O9">
+        <v>0.3336637594195427</v>
+      </c>
+      <c r="P9">
+        <v>0.3336637594195427</v>
+      </c>
+      <c r="Q9">
+        <v>1.244007973222778</v>
+      </c>
+      <c r="R9">
+        <v>11.196071759005</v>
+      </c>
+      <c r="S9">
+        <v>0.00213096971837769</v>
+      </c>
+      <c r="T9">
+        <v>0.00213096971837769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2021483333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.606445</v>
+      </c>
+      <c r="I10">
+        <v>0.006386578278938132</v>
+      </c>
+      <c r="J10">
+        <v>0.006386578278938132</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.368614333333333</v>
+      </c>
+      <c r="N10">
+        <v>7.105843</v>
+      </c>
+      <c r="O10">
+        <v>0.1284252420347888</v>
+      </c>
+      <c r="P10">
+        <v>0.1284252420347888</v>
+      </c>
+      <c r="Q10">
+        <v>0.4788114397927778</v>
+      </c>
+      <c r="R10">
+        <v>4.309302958135</v>
+      </c>
+      <c r="S10">
+        <v>0.0008201978612467542</v>
+      </c>
+      <c r="T10">
+        <v>0.0008201978612467542</v>
       </c>
     </row>
   </sheetData>
